--- a/COINs Intelektuellen-Ranking.xlsx
+++ b/COINs Intelektuellen-Ranking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{2268F253-0306-46AB-8634-3E5BB2888913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9DBFDF-5D2D-461B-9156-4C329E20F41A}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27615" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -1399,7 +1399,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000AEB9A43}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5779E16}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1473,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E61A23C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A7CB522}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BBB7B622}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,8 +1805,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/COINs Intelektuellen-Ranking.xlsx
+++ b/COINs Intelektuellen-Ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2268F253-0306-46AB-8634-3E5BB2888913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9DBFDF-5D2D-461B-9156-4C329E20F41A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E363D7EA-0D7B-7148-98AC-5103D4ECBA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27615" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -605,6 +605,9 @@
   <si>
     <t>Zora del Buono</t>
   </si>
+  <si>
+    <t>gsr für Andres Andrekson</t>
+  </si>
 </sst>
 </file>
 
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -800,6 +803,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1147,7 +1153,7 @@
                   <c:v>8780</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>202000</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="#,##0">
                   <c:v>1570</c:v>
@@ -1399,7 +1405,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000AEB9A43}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1442,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5779E16}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1479,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E61A23C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1516,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A7CB522}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1553,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BBB7B622}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,20 +1811,20 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -5610,10 +5616,12 @@
       <c r="F91" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="30">
-        <v>202000</v>
-      </c>
-      <c r="H91" s="2"/>
+      <c r="G91" s="37">
+        <v>334</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>

--- a/COINs Intelektuellen-Ranking.xlsx
+++ b/COINs Intelektuellen-Ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E363D7EA-0D7B-7148-98AC-5103D4ECBA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F815DE2-F261-4FF4-AD4E-BD04F75E9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Literatur</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Aleksanra Bachzetsis</t>
@@ -156,19 +153,7 @@
     <t>Christian Jott Jenny</t>
   </si>
   <si>
-    <t>Christoph-Mathias Müller</t>
-  </si>
-  <si>
-    <t>Christoph-Mathias Mueller</t>
-  </si>
-  <si>
     <t>@cmu1001</t>
-  </si>
-  <si>
-    <t>Christoph Rehmann-Suter</t>
-  </si>
-  <si>
-    <t>Christoph Rehmann-Sutter</t>
   </si>
   <si>
     <t>Claudia Honegger</t>
@@ -327,9 +312,6 @@
     <t>Lena Lisa Wüstendörfer</t>
   </si>
   <si>
-    <t>Lena-Lisa Wüstendörfer</t>
-  </si>
-  <si>
     <t>Lorenz Häberli</t>
   </si>
   <si>
@@ -358,9 +340,6 @@
   </si>
   <si>
     <t>Madeleine Schuppli</t>
-  </si>
-  <si>
-    <t>Mai-Thu Perret</t>
   </si>
   <si>
     <t>Manon</t>
@@ -507,9 +486,6 @@
     <t>Politologie</t>
   </si>
   <si>
-    <t>@laStaempfli</t>
-  </si>
-  <si>
     <t>Rolf Dobelli</t>
   </si>
   <si>
@@ -607,6 +583,24 @@
   </si>
   <si>
     <t>gsr für Andres Andrekson</t>
+  </si>
+  <si>
+    <t>ChristophMathias Müller</t>
+  </si>
+  <si>
+    <t>ChristophMathias Mueller</t>
+  </si>
+  <si>
+    <t>Christoph RehmannSuter</t>
+  </si>
+  <si>
+    <t>Christoph RehmannSutter</t>
+  </si>
+  <si>
+    <t>LenaLisa Wüstendörfer</t>
+  </si>
+  <si>
+    <t>MaiThu Perret</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1266,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1416048544"/>
@@ -1348,7 +1342,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="134385060"/>
@@ -1371,7 +1365,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1405,7 +1399,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000AEB9A43}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1436,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5779E16}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1473,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E61A23C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1510,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A7CB522}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1547,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BBB7B622}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,20 +1805,20 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -1882,12 +1876,8 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="10">
         <v>3920</v>
       </c>
@@ -1913,23 +1903,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="12">
         <v>888</v>
       </c>
@@ -1955,22 +1941,22 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="14">
         <v>7500</v>
@@ -1997,21 +1983,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="14">
         <v>1200</v>
       </c>
@@ -2037,23 +2021,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="17">
         <v>408</v>
       </c>
@@ -2079,23 +2059,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="12">
         <v>432</v>
       </c>
@@ -2121,23 +2097,21 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="10">
         <v>1930</v>
       </c>
@@ -2163,21 +2137,17 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12">
         <v>438</v>
       </c>
@@ -2203,23 +2173,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="14">
         <v>2480</v>
       </c>
@@ -2245,23 +2211,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="12">
         <v>783</v>
       </c>
@@ -2287,23 +2249,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="12">
         <v>914</v>
       </c>
@@ -2329,23 +2287,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="14">
         <v>1020</v>
       </c>
@@ -2371,23 +2325,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="14">
         <v>3530</v>
       </c>
@@ -2413,23 +2363,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="14">
         <v>2660</v>
       </c>
@@ -2455,23 +2401,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="14">
         <v>3860</v>
       </c>
@@ -2497,23 +2439,19 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="12">
         <v>773</v>
       </c>
@@ -2539,23 +2477,21 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="12">
         <v>339</v>
       </c>
@@ -2581,23 +2517,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12">
         <v>315</v>
       </c>
@@ -2623,23 +2555,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="12">
         <v>161</v>
       </c>
@@ -2665,23 +2593,21 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="12">
         <v>93</v>
       </c>
@@ -2707,23 +2633,19 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="12">
         <v>30</v>
       </c>
@@ -2749,23 +2671,21 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="14">
         <v>3350</v>
       </c>
@@ -2791,23 +2711,21 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="14">
         <v>2410</v>
       </c>
@@ -2833,23 +2751,19 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="12">
         <v>980</v>
       </c>
@@ -2875,23 +2789,19 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="14">
         <v>1450</v>
       </c>
@@ -2917,23 +2827,19 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="14">
         <v>1190</v>
       </c>
@@ -2959,23 +2865,19 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="14">
         <v>2080</v>
       </c>
@@ -3001,23 +2903,19 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="12">
         <v>500</v>
       </c>
@@ -3043,23 +2941,19 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D30" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="14">
         <v>2750</v>
       </c>
@@ -3085,19 +2979,19 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="14">
@@ -3125,23 +3019,21 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="14">
         <v>3700</v>
       </c>
@@ -3167,22 +3059,22 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="14">
         <v>13900</v>
@@ -3209,23 +3101,19 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="12">
         <v>762</v>
       </c>
@@ -3251,23 +3139,19 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D35" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="12">
         <v>227</v>
       </c>
@@ -3293,23 +3177,21 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="12">
         <v>111</v>
       </c>
@@ -3335,23 +3217,19 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="14">
         <v>8780</v>
       </c>
@@ -3377,21 +3255,19 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="14">
         <v>1520</v>
       </c>
@@ -3417,23 +3293,19 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="10">
         <v>1420</v>
       </c>
@@ -3459,23 +3331,21 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="14">
         <v>8400</v>
       </c>
@@ -3501,23 +3371,21 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="10">
         <v>1460</v>
       </c>
@@ -3543,21 +3411,17 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="12">
         <v>408</v>
       </c>
@@ -3583,23 +3447,19 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12">
         <v>549</v>
       </c>
@@ -3625,23 +3485,21 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="10">
         <v>440</v>
       </c>
@@ -3667,23 +3525,21 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F45" s="9"/>
       <c r="G45" s="10">
         <v>519</v>
       </c>
@@ -3709,23 +3565,21 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="14">
         <v>1880</v>
       </c>
@@ -3751,23 +3605,19 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="14">
         <v>2680</v>
       </c>
@@ -3793,23 +3643,19 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="12">
         <v>377</v>
       </c>
@@ -3835,28 +3681,26 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="24">
         <v>2770</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3879,28 +3723,26 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D50" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="24">
         <v>2770</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3923,28 +3765,26 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="10">
         <v>462</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3967,23 +3807,19 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="10">
         <v>4030</v>
       </c>
@@ -4009,23 +3845,19 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="30">
         <v>290</v>
       </c>
@@ -4051,21 +3883,17 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="30">
         <v>1740</v>
       </c>
@@ -4091,23 +3919,19 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D55" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="12">
         <v>1310</v>
       </c>
@@ -4133,23 +3957,19 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="30">
         <v>1110</v>
       </c>
@@ -4175,23 +3995,19 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="30">
         <v>26100</v>
       </c>
@@ -4217,21 +4033,17 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D58" s="12"/>
-      <c r="E58" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="30">
         <v>233</v>
       </c>
@@ -4257,21 +4069,19 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F59" s="13"/>
       <c r="G59" s="30">
         <v>253</v>
       </c>
@@ -4297,23 +4107,19 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="10">
         <v>14900</v>
       </c>
@@ -4339,23 +4145,21 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="10">
         <v>1070</v>
       </c>
@@ -4381,23 +4185,19 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="30">
         <v>1210</v>
       </c>
@@ -4423,23 +4223,21 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="30">
         <v>402</v>
       </c>
@@ -4465,21 +4263,17 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D64" s="12"/>
-      <c r="E64" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="30">
         <v>218</v>
       </c>
@@ -4505,23 +4299,19 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="10">
         <v>1120</v>
       </c>
@@ -4547,23 +4337,19 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="10">
         <v>10500</v>
       </c>
@@ -4589,23 +4375,19 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="30">
         <v>4210</v>
       </c>
@@ -4631,22 +4413,22 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" s="10">
         <v>1810</v>
@@ -4673,23 +4455,19 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="30">
         <v>726</v>
       </c>
@@ -4715,23 +4493,21 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="30">
         <v>9690</v>
       </c>
@@ -4757,23 +4533,21 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="G71" s="30">
         <v>1410</v>
       </c>
@@ -4799,23 +4573,21 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="G72" s="30">
         <v>1750</v>
       </c>
@@ -4841,23 +4613,21 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="G73" s="30">
         <v>3840</v>
       </c>
@@ -4883,28 +4653,26 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="30">
         <v>4240</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -4927,23 +4695,19 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="10">
         <v>2560</v>
       </c>
@@ -4969,23 +4733,19 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="10">
         <v>1440</v>
       </c>
@@ -5011,23 +4771,19 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="30">
         <v>5370</v>
       </c>
@@ -5053,23 +4809,19 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="30">
         <v>2070</v>
       </c>
@@ -5095,23 +4847,21 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="30">
         <v>1320</v>
       </c>
@@ -5137,23 +4887,19 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="30">
         <v>1460</v>
       </c>
@@ -5179,23 +4925,21 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="30">
         <v>2110</v>
       </c>
@@ -5221,23 +4965,19 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D82" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="30">
         <v>6980</v>
       </c>
@@ -5263,23 +5003,21 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="30">
         <v>647</v>
       </c>
@@ -5305,23 +5043,21 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="10">
         <v>11500</v>
       </c>
@@ -5347,23 +5083,19 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="30">
         <v>638</v>
       </c>
@@ -5389,22 +5121,22 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="10">
         <v>7770</v>
@@ -5431,23 +5163,19 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D87" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="30">
         <v>4650</v>
       </c>
@@ -5473,22 +5201,22 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G88" s="30">
         <v>15300</v>
@@ -5515,23 +5243,19 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="30">
         <v>1720</v>
       </c>
@@ -5557,23 +5281,21 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E90" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="30">
         <v>8780</v>
       </c>
@@ -5599,28 +5321,26 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D91" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F91" s="12"/>
       <c r="G91" s="37">
         <v>334</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -5643,23 +5363,19 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="10">
         <v>1570</v>
       </c>
@@ -5685,23 +5401,19 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="30">
         <v>683</v>
       </c>
@@ -5727,23 +5439,19 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="30">
         <v>452</v>
       </c>
@@ -5769,28 +5477,28 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" s="31">
         <v>466</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -5813,28 +5521,26 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D96" s="30" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="30">
         <v>252</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -5857,23 +5563,21 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="30">
         <v>19700</v>
       </c>
@@ -5899,23 +5603,19 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="10">
         <v>610</v>
       </c>
@@ -5941,21 +5641,17 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D99" s="12"/>
-      <c r="E99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="30">
         <v>816</v>
       </c>
@@ -5981,23 +5677,19 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="30">
         <v>95</v>
       </c>
@@ -6023,23 +5715,19 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>10</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="10">
         <v>1560</v>
       </c>
